--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1429.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1429.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.719677967457433</v>
+        <v>0.4119732975959778</v>
       </c>
       <c r="B1">
-        <v>1.937067423920557</v>
+        <v>2.755685806274414</v>
       </c>
       <c r="C1">
-        <v>2.006967128870177</v>
+        <v>6.085403442382812</v>
       </c>
       <c r="D1">
-        <v>2.547381874846856</v>
+        <v>1.714774012565613</v>
       </c>
       <c r="E1">
-        <v>3.294752043481927</v>
+        <v>1.018853425979614</v>
       </c>
     </row>
   </sheetData>
